--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Dejean/Auguste_Dejean.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Dejean/Auguste_Dejean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Auguste Dejan, 2e comte Dejean, est un général et entomologiste français, né le 10 août 1780 à Amiens et mort le 17 mars 1845 à Paris. Il fut aide de camp de Napoléon Ier mais dut s'exiler en Europe centrale après Waterloo, ce qui mit un terme à sa carrière militaire. Il fut autorisé de rentrer en France en 1818, puis siégea en 1824 à la Chambre des pairs et devint un entomologiste de premier plan.
@@ -514,90 +526,205 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guerres révolutionnaires
-Pierre François Marie Auguste Dejean est le fils aîné, issu du premier mariage, de Jean François Aimé Dejean (1749-1824) et d’Alexandrine-Marie-Elisabeth LeBoucher d’Ailly. Auguste suivit comme son père la carrière des armes, tout en montrant un goût prononcé pour l'ornithologie et l'entomologie.
+          <t>Guerres révolutionnaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre François Marie Auguste Dejean est le fils aîné, issu du premier mariage, de Jean François Aimé Dejean (1749-1824) et d’Alexandrine-Marie-Elisabeth LeBoucher d’Ailly. Auguste suivit comme son père la carrière des armes, tout en montrant un goût prononcé pour l'ornithologie et l'entomologie.
 Il entra au service en 1795, comme aide de camp provisoire de son père, et fit cette campagne et celles de 1796 et 1797 aux armées du Nord et de Sambre-et-Meuse, celle de 1801 à l'armée de réserve en Italie, celle de 1804 et partie de celle de 1805 à l'armée des côtes de l'Océan.
-Guerres napoléoniennes
-Passé à la Grande Armée, il combattit à Austerlitz le 2 décembre 1805, et passa, le 13 février 1806, du grade de chef d'escadron au 9e régiment de dragons, qu'il remplissait alors, au commandement, comme colonel du 11e régiment de la même arme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Guerres napoléoniennes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passé à la Grande Armée, il combattit à Austerlitz le 2 décembre 1805, et passa, le 13 février 1806, du grade de chef d'escadron au 9e régiment de dragons, qu'il remplissait alors, au commandement, comme colonel du 11e régiment de la même arme.
 Il devint officier de la Légion d'honneur le 11 juillet 1807 (après Eylau et Friedland). Il se trouva à la bataille d'Alba de Tormes le 28 novembre 1809, à l'affaire de Buçaco le 27 septembre 1810, et aux batailles de Fuentes de Onoro en 1811 et de la Moskowa en 1812. Il était général de brigade depuis le 6 août 1811.
 Le 8 mai 1812, le baron Dejean fut présenté à Napoléon comme député du département de l'Aude : il avait été désigné comme candidat au Corps législatif par ce département mais n'y fut pas nommé par le Sénat conservateur.
 L'année suivante, il prêta serment comme aide de camp de Napoléon, et se trouva à toutes les actions importantes de la campagne de cette année, notamment à celles de Lutzen, Wurschen, Wachau, Leipzig et Hanau— campagne après laquelle, le 3 novembre 1813, il fut créé commandeur de la Légion d'honneur —, et, en 1814, à celles de Brienne, Montmirail, Vauchamps, Craonne et Arcis-sur-Aube.
-Le 23 mars 1814, Napoléon le nomma lieutenant général de cavalerie. Chargé par Napoléon de s'opposer à la capitulation de Paris, il n'y arriva qu'après la reddition, fut confirmé dans son grade de lieutenant général par le roi le 23 juin, et fait chevalier de l'ordre de Saint-Louis le 5 septembre suivant. Au retour de Bonaparte de l'île d'Elbe, le baron Dejean reprit auprès de lui ses fonctions d'aide de camp, et fut nommé commissaire extraordinaire dans les départements de la Somme et du Nord. Divers rapports qu'il fit pendant cette mission ont été imprimés dans le pamphlet intitulé Portefeuille de Bonaparte saisi à Waterloo, dont, au reste, rien ne garantit l'authenticité[1]. Après avoir rempli cette mission, il rejoignit l'armée et se trouva aux batailles de Ligny et de Waterloo (où Dejean est le premier aide de camp de Napoléon[2]).
+Le 23 mars 1814, Napoléon le nomma lieutenant général de cavalerie. Chargé par Napoléon de s'opposer à la capitulation de Paris, il n'y arriva qu'après la reddition, fut confirmé dans son grade de lieutenant général par le roi le 23 juin, et fait chevalier de l'ordre de Saint-Louis le 5 septembre suivant. Au retour de Bonaparte de l'île d'Elbe, le baron Dejean reprit auprès de lui ses fonctions d'aide de camp, et fut nommé commissaire extraordinaire dans les départements de la Somme et du Nord. Divers rapports qu'il fit pendant cette mission ont été imprimés dans le pamphlet intitulé Portefeuille de Bonaparte saisi à Waterloo, dont, au reste, rien ne garantit l'authenticité. Après avoir rempli cette mission, il rejoignit l'armée et se trouva aux batailles de Ligny et de Waterloo (où Dejean est le premier aide de camp de Napoléon).
 Au second retour de Louis XVIII, le général Dejean se trouva compris dans la seconde liste de l'ordonnance royale du 24 juillet. Obligé de sortir du royaume par une autre ordonnance du 17 janvier 1816, il se retira en Allemagne. Il parcourut alors la Styrie, la Croatie et le Dalmatie, au grand profit de sa collection d'insectes, la plus complète de son temps, et dans laquelle il avait réuni treize mille espèces.
 En 1818, son père obtint pour lui, de Louis XVIII, l'autorisation de rentrer en France.
-À la chambre des pairs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>À la chambre des pairs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le 14 juin 1824, le lieutenant général Dejean fut admis a siéger dans la Chambre des pairs, à titre héréditaire, en remplacement de son père, mort le 12 mai précédent : il était devenu comte et pair de France, ses titres d'hérédité ayant été vérifiés à la Chambre des pairs.
 Il fit partie de la minorité libérale, prêta serment au gouvernement de juillet, et prit fréquemment la parole à la Chambre haute, sur la loi électorale, sur la loi municipale, contre l'abolition de l'hérédité de la pairie, sur l'avancement dans l'armée de terre (1832), sur les pensions militaires, sur la remontre de la cavalerie (il avait été nommé membre du comité de cavalerie en 1840) et sur le projet de loi de recrutement de l'armée (1843).
 Entre-temps, ayant repris le service actif, il avait commandé la cavalerie lors de l'expédition d'Anvers de 1832.
-L'entomologiste
-Grand spécialiste des coléoptères et plus particulièrement des Carabidae, il assemble la plus grande collection privée jamais réalisée. Il reçoit des spécimens de tous les coins de la planète et son catalogue final dénombre 22 000 espèces identifiées. Il emploie Jean-Baptiste Alphonse Dechauffour de Boisduval (1799-1879) comme conservateur de sa collection. Une anecdote indiquait la ferveur de Dejean pour ces animaux : lors de la bataille d’Alcanizas en Espagne, Dejean était sur le point de donner l’ordre de l’attaque lorsqu’il remarqua un coléoptère posé sur une fleur. Il descendit alors de cheval, le ramassa et le piqua au fond de son chapeau. Il remonta sur son cheval, et remporta la bataille après un dur combat où il fit un grand nombre de prisonniers. Son chapeau avait été déchiqueté par des tirs ennemis, mais il eut la satisfaction de retrouver intact son insecte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'entomologiste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand spécialiste des coléoptères et plus particulièrement des Carabidae, il assemble la plus grande collection privée jamais réalisée. Il reçoit des spécimens de tous les coins de la planète et son catalogue final dénombre 22 000 espèces identifiées. Il emploie Jean-Baptiste Alphonse Dechauffour de Boisduval (1799-1879) comme conservateur de sa collection. Une anecdote indiquait la ferveur de Dejean pour ces animaux : lors de la bataille d’Alcanizas en Espagne, Dejean était sur le point de donner l’ordre de l’attaque lorsqu’il remarqua un coléoptère posé sur une fleur. Il descendit alors de cheval, le ramassa et le piqua au fond de son chapeau. Il remonta sur son cheval, et remporta la bataille après un dur combat où il fit un grand nombre de prisonniers. Son chapeau avait été déchiqueté par des tirs ennemis, mais il eut la satisfaction de retrouver intact son insecte.
 Son catalogue a soulevé de nombreuses polémiques car il ne respectait pas la règle linnéenne de l’antériorité : 
 « Je me suis fait une règle de toujours préserver le nom le plus généralement utilisé, et non pas nécessairement le plus ancien. »
 Il est l’auteur de nombreuses publications qui couvrent de très nombreuses espèces. Pourtant, le plan initial de son Species Général des Coléoptères de la Collection de M. le Comte Dejean était encore plus ambitieux car il souhaitait couvrir la totalité des coléoptères connus alors qu’il dut se limiter à décrire ceux de sa collection. Les cinq premiers des six volumes sont de sa main.
 Le comte Dejean présida la société entomologique de France en 1840.
 Il demandait 50 000 francs pour sa collection, somme que le Muséum national d'histoire naturelle de Paris fut incapable de réunir. Après avoir refusé une offre du roi de Prusse, la collection fut mise en vente et dispersée. Elle fut acquise par différents entomologistes comme Maximilien de Chaudoir (1816-1881) puis par Charles Oberthür (1845-1924). On trouve aujourd’hui, dans plusieurs muséums, dont celui de Paris, des parties de la collection originelle.
-Le 14 avril 1844, le comte Dejean fut élevé à la dignité de grand-croix de la Légion d'honneur. Il mourut l'année suivante le 17 mars 1845[3], au 17 de la rue de l'Université, et fut inhumé aux côtés de son père dans la 40e division du cimetière du Père-Lachaise.
+Le 14 avril 1844, le comte Dejean fut élevé à la dignité de grand-croix de la Légion d'honneur. Il mourut l'année suivante le 17 mars 1845, au 17 de la rue de l'Université, et fut inhumé aux côtés de son père dans la 40e division du cimetière du Père-Lachaise.
 Son fils Pierre Charles Dejean devint lui aussi général.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une caserne à Amiens, située au 54, rue Jules-Barni, a porté son nom au cours du XXe siècle[4]. Elle est désaffectée après 1993, puis a été revendue à un promoteur immobilier[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une caserne à Amiens, située au 54, rue Jules-Barni, a porté son nom au cours du XXe siècle. Elle est désaffectée après 1993, puis a été revendue à un promoteur immobilier.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Catalogue des Coléoptères de la collection de M. le Comte Dejean (1802, 1833 et 1836)
 Species générale des Coléoptères (sept volumes, 1825-1839, in-8), avec Pierre-André Latreille (1762-1833)
@@ -607,64 +734,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Titres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Baron Dejean et de l'Empire (décret du 19 mars 1808, lettres patentes du 1er juin 1808 (Bayonne)).
 2e comte Dejean (1824).</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Légion d'honneur[5] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Légion d'honneur :
 légionnaire (au camp de Boulogne) ;
 officier (11 juillet 1807) ;
 commandant (3 novembre 1813) ;
@@ -674,31 +805,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vie familiale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Fils de Jean François Aimé, comte Dejean (1749 † 1824) et d'Alexandrine Marie Élisabeth Le Boucher d'Ailly ( † 1782), Auguste épousa, le 17 juillet 1802, Adèle Barthélémy ( † 11 avril 1872 - Versailles), sœur d'Aurore Barthélémy ( † 20 janvier 1858 - Paris), seconde épouse de Jean François Aimé Dejean). Auguste et Adèle eurent ensemble :
 Adèle Jeanne (23 mars 1803 † 1860), mariée avec M. Ardène ;
@@ -717,31 +850,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Dejean</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Armoiries</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
